--- a/Excel/invert.xlsx
+++ b/Excel/invert.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,18 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Marathi</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Invert - Audacity Manual</t>
   </si>
@@ -64,80 +58,54 @@
     <t>Find out how different the stereo channels are: Use the same steps 1 and 2 above on any stereo track. If the audio is just as loud after the steps as before, the channels are very different. If the result is silence, the track is not really stereo but dual mono, where both left and right contain completely identical audio.</t>
   </si>
   <si>
-    <t>Links</t>
-  </si>
-  <si>
-    <t>|&lt; Index of Effects, Generators and Analyzers</t>
-  </si>
-  <si>
-    <t>|&lt; Effect Menu</t>
-  </si>
-  <si>
-    <t>उलट करा - ऑडसिटी मॅन्युअल</t>
-  </si>
-  <si>
-    <t>उलट करा</t>
-  </si>
-  <si>
-    <t>ऑडसिटी डेव्हलपमेंट मॅन्युअल वरुन</t>
-  </si>
-  <si>
-    <t>येथे जा: सुचालन, शोध</t>
-  </si>
-  <si>
-    <t>उलटपट्टी ऑडिओ नमुने उलथापालथ करून पलटतेने धोक्यात आणता. सकारात्मक नमुने (ऑडॅसिटी वेव्हफॉर्ममधील क्षैतिज शून्य रेषेच्या वर) शून्य रेषेच्या खाली हलविले जातात (म्हणून नकारात्मक बनतात) आणि नकारात्मक नमुने सकारात्मक बनवले जातात. उलट सामान्यपणे ऑडिओच्या आवाजावर अजिबात परिणाम होत नाही, परंतु ते असू शकतात ऑडिओ रद्द करण्यासाठी वापरले. जर एका ट्रॅकवर इनव्हर्टर लागू केले असेल आणि तो ट्रॅक एकसारखे ऑडिओ असलेल्या दुसर्‍या अनव्हर्टर्ट ट्रॅकमध्ये मिसळला असेल तर, समान ऑडिओ रद्द केला जाईल (शांत केला आहे).</t>
-  </si>
-  <si>
-    <t>याद्वारे प्रवेश: प्रभाव&gt; उलट करा</t>
-  </si>
-  <si>
-    <t>या प्रभावासाठी पॅरामीटर्स असलेले कोणतेही प्रभाव संवाद नाहीत; उलटा थेट निवडलेल्या ऑडिओवर चालतो.</t>
-  </si>
-  <si>
-    <t>जर व्युत्क्रमणास एक प्रशंसायोग्य वेळ लागला तर प्रगती संवाद खाली दिसेल:</t>
+    <t>उलट क्रम करा- ओड्यासिटी माहिती पुस्तिका</t>
+  </si>
+  <si>
+    <t>उलट क्रम करा</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी विकास माहिती पुस्तिका वरुन</t>
+  </si>
+  <si>
+    <t>येथे जा: सुचालन , शोध</t>
+  </si>
+  <si>
+    <t>नमुने ध्वनी क्रम  उलथापालथ करून नमुने त्यांच्या धुव्र  पलटतेने परस्पराविरोधी गुण दाखवत आहे . सकारात्मक नमुने ( ओड्यासिटी तरंगरूपमधील क्षैतिज शून्य रेषेच्या वर) शून्य रेषेच्या खाली हलविले जातात (म्हणून नकारात्मक बनतात) आणि नकारात्मक नमुने सकारात्मक बनविले जातात.व्यस्त सामान्यत: ध्वनीच्या आवाजावर अजिबात परिणाम करत नाही, परंतु त्याचा वापर ध्वनी रद्द करण्यासाठी केला जाऊ शकतो . जर एका गीतपट्टावर उलटक्रम लागू केले असेल आणि तो गीतपट्टा एकसारखे ध्वनी असलेल्या दुसर्‍या विरहित  गीतपट्टामध्ये मिसळला असेल तर तो समान ध्वनी रद्द होईल (शांत).</t>
+  </si>
+  <si>
+    <t>याद्वारे प्रवेश:  प्रभाव&gt;उलट क्रम करा</t>
+  </si>
+  <si>
+    <t>या प्रभावासाठी घटक असलेले कोणतेही प्रभाव संवाद नाहीत; उलटा क्रम थेट निवडलेल्या ध्वनीवर चालतो.</t>
+  </si>
+  <si>
+    <t>जर उलटक्रम एक प्रशंसायोग्य वेळ लागला तर एक प्रगती संवाद खाली दिसेल:</t>
   </si>
   <si>
     <t>वापर उदाहरणे</t>
   </si>
   <si>
-    <t>स्वर स्वहस्ते काढून टाका: हे फक्त असेच कार्य करेल जेथे स्टीरिओ गाण्याच्या डाव्या आणि उजव्या चॅनेलमध्ये समान व्होकल समान प्रमाणात, परंतु पार्श्वभूमी साधनांची असमान प्रमाणात आहे.</t>
-  </si>
-  <si>
-    <t>ऑडिओ ट्रॅक ड्रॉपडाउन मेनू वापरा आणि स्प्लिट स्टीरिओ ते मोनो निवडा.</t>
-  </si>
-  <si>
-    <t>एक चॅनेल निवडा परंतु दुसरा नाही, उलट करा आणि नंतर प्ले करा. प्रत्येक ट्रॅकमधील बोलके फक्त एक वाद्ये सोडून एकमेकांना रद्द करेल.</t>
-  </si>
-  <si>
-    <t>तत्सम परंतु अधिक कॉन्फिगर करण्यायोग्य व्होकल रिमूव्हर प्रभाव देखील पहा.</t>
-  </si>
-  <si>
-    <t>स्टिरिओ चॅनेल किती भिन्न आहेत ते शोधा: कोणत्याही स्टीरिओ ट्रॅकवर वरील 1 आणि 2 समान चरण वापरा. जर पूर्वीप्रमाणेच चरणांनंतर ऑडिओ जोरात असेल तर चॅनेल खूप भिन्न आहेत. जर परिणाम शांत असेल तर ट्रॅक खरोखर स्टिरीओ नसून ड्युअल मोनो आहे, जिथे डावे आणि उजवे दोन्ही पूर्णपणे एकसारखे ऑडिओ आहेत.</t>
-  </si>
-  <si>
-    <t>दुवे</t>
-  </si>
-  <si>
-    <t>| &lt;प्रभाव, जनरेटर आणि विश्लेषकांचे अनुक्रमणिका</t>
-  </si>
-  <si>
-    <t>| &lt;प्रभाव मेनू</t>
+    <t>स्वर स्वहस्ते काढून टाका: हे फक्त कार्य करेल जेथे स्टीरिओ गाण्याच्या डाव्या आणि उजव्या वाहिनीमध्ये समान मौखिक समान प्रमाणात, परंतु पार्श्वभूमी उपकरणे असमान प्रमाणात आहेत.</t>
+  </si>
+  <si>
+    <t>ध्वनी गीतपट्टा ड्रॉपडाउन मेनू वापरा आणि विभाजित स्टीरिओ ते मोनो निवडा .</t>
+  </si>
+  <si>
+    <t>एक वाहिनी निवडा परंतु दुसरा नाही, उलट करा आणि नंतर वाजवा करा. प्रत्येक गीतपट्टामधील आवाज एकमेकांना रद्द करेल, फक्त वाद्ये सोडून.</t>
+  </si>
+  <si>
+    <t>तत्सम परंतु अधिक संयोज्य करण्यायोग्य मौखिक काढणारा प्रभाव देखील पहा .</t>
+  </si>
+  <si>
+    <t>स्टिरिओ वाहिनी किती भिन्न आहेत ते शोधा: कोणत्याही स्टीरिओ गीतपट्टावर वरील 1 आणि 2 समान चरण वापरा. जर पूर्वीप्रमाणेच चरणांनंतर ध्वनी जोरात असेल तर वाहिनी खूप भिन्न आहेत. जर परिणाम शांत असेल तर गीतपट्टा खरोखर स्टिरीओ नसून दुहेरी मोनो आहे , जिथे डावे आणि उजवे दोन्ही पूर्णपणे एकसारखे ध्वनी आहेत.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -153,7 +121,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -161,36 +129,23 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -269,6 +224,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -303,6 +259,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -478,206 +435,129 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:B47"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="90" customWidth="1"/>
+    <col min="2" max="2" width="107.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
